--- a/DEV-SHAHULV1.xlsx
+++ b/DEV-SHAHULV1.xlsx
@@ -507,7 +507,7 @@
   <dimension ref="A1:AA1"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="Z1" sqref="Z1"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
